--- a/Data Files/OthersData/tcdatabinding.xlsx
+++ b/Data Files/OthersData/tcdatabinding.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POOL_KATALON\project\Assignment 3 POOL\Assignment 3\Data Files\OthersData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_Knowledge Base\KATALON\Training Hacktiv8 18-22 Dec 2023\Project\Assignment 3\katalon-taskmobile-SlametWidodo\Data Files\OthersData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>hacktiv8MrQC</t>
-  </si>
-  <si>
-    <t>Fashions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>category</t>
   </si>
@@ -42,9 +36,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>hacktiv8MrQC@mail.com</t>
-  </si>
-  <si>
     <t>phoneNumber</t>
   </si>
   <si>
@@ -55,6 +46,18 @@
   </si>
   <si>
     <t>Home &amp; Furniture</t>
+  </si>
+  <si>
+    <t>hacktiv8_Mry</t>
+  </si>
+  <si>
+    <t>hacktiv8_Mry@mail.com</t>
+  </si>
+  <si>
+    <t>Baby Gear</t>
+  </si>
+  <si>
+    <t>Electronics &amp; Gadgets</t>
   </si>
 </sst>
 </file>
@@ -389,12 +392,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
@@ -402,30 +405,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>888987654</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>9845671230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,17 +455,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
